--- a/biology/Médecine/Commission_interministérielle_des_radioéléments_artificiels/Commission_interministérielle_des_radioéléments_artificiels.xlsx
+++ b/biology/Médecine/Commission_interministérielle_des_radioéléments_artificiels/Commission_interministérielle_des_radioéléments_artificiels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
+          <t>Commission_interministérielle_des_radioéléments_artificiels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Commission Interministérielle des Radioéléments Artificiels (CIREA) avait été créée en 1954 pour satisfaire aux termes de la loi du 19 juillet 1952 du code de la pharmacie réglementant la production, l’importation, l’utilisation de radioéléments artificiels[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Commission Interministérielle des Radioéléments Artificiels (CIREA) avait été créée en 1954 pour satisfaire aux termes de la loi du 19 juillet 1952 du code de la pharmacie réglementant la production, l’importation, l’utilisation de radioéléments artificiels.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
+          <t>Commission_interministérielle_des_radioéléments_artificiels</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La CIREA avait reçu pour mission de donner un avis et de faire des propositions relatives à l’élaboration de la réglementation et à son application dans des domaines d’utilisation des radioéléments artificiels. En particulier, elle délivrait les autorisations de détention et d’utilisation des radionucléides.
 La loi 2001-398 du 9 mai 2001 a fait disparaître la CIREA, dont la majorité des missions, secteurs hors médical, ont été reprises par la Direction générale de la sûreté nucléaire et de la radioprotection (DGSNR), créée par le décret no 2002-255 du 22 février 2002. 
-La DGSNR était la structure centrale de l'Autorité de Sûreté nucléaire (ASN) jusqu'à la réforme de novembre 2006 (loi no 2006-686 du 13 juin 2006), où l’ensemble des personnels et moyens de l’ex-DGSNR et des ex-DSNR (Division de la Sûreté nucléaire et de la radioprotection) sont désormais réunis au sein de la nouvelle ASN[2].
+La DGSNR était la structure centrale de l'Autorité de Sûreté nucléaire (ASN) jusqu'à la réforme de novembre 2006 (loi no 2006-686 du 13 juin 2006), où l’ensemble des personnels et moyens de l’ex-DGSNR et des ex-DSNR (Division de la Sûreté nucléaire et de la radioprotection) sont désormais réunis au sein de la nouvelle ASN.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
+          <t>Commission_interministérielle_des_radioéléments_artificiels</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Composition
-Présidée par un conseiller d’état désigné par arrêté du Premier Ministre, elle comprenait des représentants des ministères et des grands organismes publics concernés. 
-Fonctionnement
-Elle était divisée en deux sections dont les rôles étaient :
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présidée par un conseiller d’état désigné par arrêté du Premier Ministre, elle comprenait des représentants des ministères et des grands organismes publics concernés. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Commission_interministérielle_des_radioéléments_artificiels</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation de la commission</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle était divisée en deux sections dont les rôles étaient :
 les pratiques médicales et de biologie humaine ;
 les autres domaines (agriculture, industrie, recherche autre que médicale, etc.).
 Un secrétariat permanent assistait la commission dans ses missions. Son rôle était de préparer les délibérations de la CIRÉA et de mettre en œuvre les décisions de son président. Le Secrétaire permanent de la commission assistait à ses travaux (deux réunions au moins par an) avec voix délibérative.
@@ -557,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Commission_interministérielle_des_radioéléments_artificiels</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Commission_interminist%C3%A9rielle_des_radio%C3%A9l%C3%A9ments_artificiels</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Actions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la définition de ses missions, les deux formes d’action de la commission étaient :
 d'émettre des avis ;
